--- a/総合演習資料/2.外部設計/画面設計図_kagawa.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図_kagawa.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsg-user\Desktop\javaWeb.git\総合演習資料\2.外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsg-user\Desktop\javaWeb2.git\総合演習資料\2.外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計図_雛形" sheetId="1" r:id="rId1"/>
-    <sheet name="新規登録" sheetId="2" r:id="rId2"/>
-    <sheet name="登録内容確認" sheetId="4" r:id="rId3"/>
-    <sheet name="修正" sheetId="5" r:id="rId4"/>
-    <sheet name="修正内容確認" sheetId="6" r:id="rId5"/>
-    <sheet name="削除内容確認画面" sheetId="7" r:id="rId6"/>
-    <sheet name="詳細画面（管理者）" sheetId="8" r:id="rId7"/>
-    <sheet name="詳細画面（一般・自分以外）" sheetId="9" r:id="rId8"/>
-    <sheet name="詳細画面（一般・自分）" sheetId="10" r:id="rId9"/>
+    <sheet name="新規登録" sheetId="11" r:id="rId2"/>
+    <sheet name="登録内容確認" sheetId="12" r:id="rId3"/>
+    <sheet name="修正" sheetId="13" r:id="rId4"/>
+    <sheet name="修正内容確認" sheetId="14" r:id="rId5"/>
+    <sheet name="削除内容確認画面" sheetId="15" r:id="rId6"/>
+    <sheet name="詳細画面（管理者）" sheetId="16" r:id="rId7"/>
+    <sheet name="詳細画面（一般・自分以外）" sheetId="17" r:id="rId8"/>
+    <sheet name="詳細画面（一般・自分）" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="76">
   <si>
     <t>作成日付：</t>
     <rPh sb="0" eb="2">
@@ -237,10 +237,6 @@
     <rPh sb="2" eb="3">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>◆◆</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -491,6 +487,265 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>登録ボタンをクリックすると、</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンをクリックすると</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆◆</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>前画面に戻るボタンをクリックすると</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（各項目には入力された状態で遷移）</t>
+    <rPh sb="1" eb="4">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正ボタンをクリックすると、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページNo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面に遷移</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンをクリックすると、</t>
+  </si>
+  <si>
+    <t>社員情報管理画面または</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（本画面に遷移する前の画面に遷移）</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンをクリックすると</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページNo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正ボタンをクリックすると</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -713,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,39 +1044,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -867,12 +1095,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1835,244 +2093,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="29" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46">
         <v>1</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="25" t="s">
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25">
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46">
         <v>1</v>
       </c>
-      <c r="BB2" s="26"/>
+      <c r="BB2" s="47"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="30" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="28"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="48"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="29" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="31">
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="50">
         <v>43031</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="52"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="54"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -3459,17 +3717,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
-    <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
     <mergeCell ref="AU4:BB5"/>
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
+    <mergeCell ref="AQ3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3482,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3532,244 +3790,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="29" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46">
         <v>1</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="25" t="s">
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25">
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46">
         <v>4</v>
       </c>
-      <c r="BB2" s="26"/>
+      <c r="BB2" s="47"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="30" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="28"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="48"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="29" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="31">
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="50">
         <v>43032</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="52"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="54"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -3869,7 +4127,6 @@
       <c r="AO7" s="15"/>
       <c r="AP7" s="15"/>
       <c r="AQ7" s="11"/>
-      <c r="AR7" s="12"/>
       <c r="AS7" s="12"/>
       <c r="AT7" s="12"/>
       <c r="AU7" s="4"/>
@@ -3923,7 +4180,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -3961,7 +4220,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -4037,7 +4298,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -4075,7 +4338,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -4146,7 +4411,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="51" t="s">
+      <c r="O14" s="25" t="s">
         <v>11</v>
       </c>
       <c r="P14" s="1"/>
@@ -4287,7 +4552,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
@@ -4398,7 +4663,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="4"/>
@@ -4453,7 +4718,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="52" t="s">
+      <c r="P20" s="26" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="4"/>
@@ -4508,7 +4773,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="26" t="s">
         <v>14</v>
       </c>
       <c r="Q21" s="4"/>
@@ -4564,7 +4829,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="52" t="s">
+      <c r="P22" s="26" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="4"/>
@@ -4619,7 +4884,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="52" t="s">
+      <c r="P23" s="26" t="s">
         <v>28</v>
       </c>
       <c r="Q23" s="4"/>
@@ -4627,7 +4892,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
@@ -4674,8 +4939,8 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="52" t="s">
-        <v>31</v>
+      <c r="P24" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -4729,7 +4994,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="52" t="s">
+      <c r="P25" s="26" t="s">
         <v>16</v>
       </c>
       <c r="Q25" s="4"/>
@@ -4833,13 +5098,13 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="53" t="s">
+      <c r="U27" s="27" t="s">
         <v>17</v>
       </c>
       <c r="V27" s="22"/>
       <c r="W27" s="23"/>
       <c r="X27" s="24"/>
-      <c r="Y27" s="53" t="s">
+      <c r="Y27" s="27" t="s">
         <v>18</v>
       </c>
       <c r="Z27" s="22"/>
@@ -5216,7 +5481,7 @@
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AQ4:AT5"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5228,7 +5493,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27:AB27"/>
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5277,244 +5542,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="29" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46">
         <v>1</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="25" t="s">
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25">
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46">
         <v>5</v>
       </c>
-      <c r="BB2" s="26"/>
+      <c r="BB2" s="47"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="30" t="s">
+      <c r="B3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="28"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="48"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="29" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="31">
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="50">
         <v>43032</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="52"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="54"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -5668,7 +5933,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -5719,7 +5986,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -5741,8 +6010,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="51" t="s">
-        <v>33</v>
+      <c r="O10" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -5809,7 +6078,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -5855,7 +6126,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="55" t="s">
+        <v>56</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -5879,7 +6152,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -5899,7 +6172,9 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="4"/>
+      <c r="AR13" s="55" t="s">
+        <v>57</v>
+      </c>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
@@ -5966,7 +6241,7 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="52" t="s">
+      <c r="P15" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="4"/>
@@ -6010,7 +6285,7 @@
       <c r="I16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="52" t="s">
+      <c r="P16" s="26" t="s">
         <v>25</v>
       </c>
       <c r="Q16" s="4"/>
@@ -6054,7 +6329,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="26" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="4"/>
@@ -6102,7 +6377,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="52" t="s">
+      <c r="P18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="Q18" s="4"/>
@@ -6149,14 +6424,14 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="26" t="s">
         <v>28</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -6196,8 +6471,8 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="52" t="s">
-        <v>31</v>
+      <c r="P20" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -6243,7 +6518,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="26" t="s">
         <v>16</v>
       </c>
       <c r="Q21" s="4"/>
@@ -6288,8 +6563,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="54" t="s">
-        <v>34</v>
+      <c r="P22" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -6442,8 +6717,8 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="52" t="s">
-        <v>35</v>
+      <c r="P25" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -6499,7 +6774,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="52"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -6559,15 +6834,15 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="53" t="s">
+      <c r="U27" s="27" t="s">
         <v>17</v>
       </c>
       <c r="V27" s="22"/>
       <c r="W27" s="23"/>
-      <c r="X27" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y27" s="53"/>
+      <c r="X27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="27"/>
       <c r="Z27" s="22"/>
       <c r="AA27" s="23"/>
       <c r="AB27" s="24"/>
@@ -6885,8 +7160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="M13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4:BB5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6935,244 +7210,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="29" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46">
         <v>1</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="25" t="s">
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25">
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46">
         <v>6</v>
       </c>
-      <c r="BB2" s="26"/>
+      <c r="BB2" s="47"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="30" t="s">
+      <c r="B3" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="28"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="48"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="29" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="31">
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="50">
         <v>43032</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="52"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="54"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -7326,7 +7601,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -7364,7 +7641,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -7386,8 +7665,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="51" t="s">
-        <v>36</v>
+      <c r="O10" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -7455,7 +7734,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -7510,7 +7791,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -7534,7 +7817,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -7639,7 +7922,7 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="52" t="s">
+      <c r="P15" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="4"/>
@@ -7691,7 +7974,7 @@
       <c r="I16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="52" t="s">
+      <c r="P16" s="26" t="s">
         <v>25</v>
       </c>
       <c r="Q16" s="4"/>
@@ -7742,7 +8025,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="26" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="4"/>
@@ -7798,7 +8081,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="52" t="s">
+      <c r="P18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="Q18" s="4"/>
@@ -7853,7 +8136,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="26" t="s">
         <v>28</v>
       </c>
       <c r="Q19" s="4"/>
@@ -7861,7 +8144,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
@@ -7908,8 +8191,8 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="52" t="s">
-        <v>31</v>
+      <c r="P20" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -7963,7 +8246,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="26" t="s">
         <v>16</v>
       </c>
       <c r="Q21" s="4"/>
@@ -8009,8 +8292,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="54" t="s">
-        <v>34</v>
+      <c r="P22" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -8223,13 +8506,13 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="53" t="s">
-        <v>37</v>
+      <c r="U26" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="V26" s="22"/>
       <c r="W26" s="23"/>
       <c r="X26" s="24"/>
-      <c r="Y26" s="53" t="s">
+      <c r="Y26" s="27" t="s">
         <v>18</v>
       </c>
       <c r="Z26" s="22"/>
@@ -8604,8 +8887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4:BB5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8654,244 +8937,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46">
         <v>1</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25">
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46">
         <v>7</v>
       </c>
-      <c r="BB2" s="26"/>
+      <c r="BB2" s="47"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="28"/>
+      <c r="B3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="48"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="29" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="31">
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="50">
         <v>43032</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="52"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="54"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -9045,7 +9328,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -9096,7 +9381,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -9118,8 +9405,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="51" t="s">
-        <v>40</v>
+      <c r="O10" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -9186,7 +9473,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -9232,7 +9521,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="55" t="s">
+        <v>64</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -9276,7 +9567,9 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="4"/>
+      <c r="AR13" s="55" t="s">
+        <v>57</v>
+      </c>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
@@ -9343,7 +9636,7 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="52" t="s">
+      <c r="P15" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="4"/>
@@ -9387,7 +9680,7 @@
       <c r="I16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="52" t="s">
+      <c r="P16" s="26" t="s">
         <v>25</v>
       </c>
       <c r="Q16" s="4"/>
@@ -9431,7 +9724,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="26" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="4"/>
@@ -9479,7 +9772,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="52" t="s">
+      <c r="P18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="Q18" s="4"/>
@@ -9526,14 +9819,14 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="26" t="s">
         <v>28</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -9573,8 +9866,8 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="52" t="s">
-        <v>31</v>
+      <c r="P20" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -9620,7 +9913,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="26" t="s">
         <v>16</v>
       </c>
       <c r="Q21" s="4"/>
@@ -9665,8 +9958,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="54" t="s">
-        <v>34</v>
+      <c r="P22" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -9819,8 +10112,8 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="52" t="s">
-        <v>41</v>
+      <c r="P25" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -9876,7 +10169,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="52"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -9936,15 +10229,15 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="53" t="s">
-        <v>37</v>
+      <c r="U27" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="V27" s="22"/>
       <c r="W27" s="23"/>
-      <c r="X27" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y27" s="53"/>
+      <c r="X27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="27"/>
       <c r="Z27" s="22"/>
       <c r="AA27" s="23"/>
       <c r="AB27" s="24"/>
@@ -10262,7 +10555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -10310,244 +10605,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46">
         <v>1</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25">
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46">
         <v>8</v>
       </c>
-      <c r="BB2" s="26"/>
+      <c r="BB2" s="47"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="28"/>
+      <c r="B3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="48"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="29" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="31">
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="50">
         <v>43032</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="52"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="54"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -10701,7 +10996,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -10752,7 +11049,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -10774,8 +11073,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="51" t="s">
-        <v>44</v>
+      <c r="O10" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -10842,7 +11141,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -10888,7 +11189,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -10932,7 +11235,9 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="4"/>
+      <c r="AR13" s="55" t="s">
+        <v>67</v>
+      </c>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
@@ -10976,7 +11281,9 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="4"/>
+      <c r="AR14" s="55" t="s">
+        <v>68</v>
+      </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
@@ -10999,7 +11306,7 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="52" t="s">
+      <c r="P15" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="4"/>
@@ -11043,7 +11350,7 @@
       <c r="I16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="52" t="s">
+      <c r="P16" s="26" t="s">
         <v>25</v>
       </c>
       <c r="Q16" s="4"/>
@@ -11087,7 +11394,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="26" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="4"/>
@@ -11135,7 +11442,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="52" t="s">
+      <c r="P18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="Q18" s="4"/>
@@ -11182,14 +11489,14 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="26" t="s">
         <v>28</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -11229,8 +11536,8 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="52" t="s">
-        <v>31</v>
+      <c r="P20" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -11276,7 +11583,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="26" t="s">
         <v>16</v>
       </c>
       <c r="Q21" s="4"/>
@@ -11321,8 +11628,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="54" t="s">
-        <v>34</v>
+      <c r="P22" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -11475,8 +11782,8 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="52" t="s">
-        <v>45</v>
+      <c r="P25" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -11532,7 +11839,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="52"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -11592,15 +11899,15 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="53" t="s">
-        <v>46</v>
+      <c r="U27" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="V27" s="22"/>
       <c r="W27" s="23"/>
-      <c r="X27" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y27" s="53"/>
+      <c r="X27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="27"/>
       <c r="Z27" s="22"/>
       <c r="AA27" s="23"/>
       <c r="AB27" s="24"/>
@@ -11919,7 +12226,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25:T25"/>
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11968,244 +12275,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="29" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46">
         <v>1</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="25" t="s">
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25">
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46">
         <v>9</v>
       </c>
-      <c r="BB2" s="26"/>
+      <c r="BB2" s="47"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="30" t="s">
+      <c r="B3" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="28"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="48"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="29" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="31">
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="50">
         <v>43032</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="52"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="54"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -12359,7 +12666,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -12410,7 +12719,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -12432,8 +12743,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="51" t="s">
-        <v>48</v>
+      <c r="O10" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -12500,7 +12811,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -12546,7 +12859,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="55" t="s">
+        <v>71</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -12569,8 +12884,8 @@
       <c r="I13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="54" t="s">
-        <v>34</v>
+      <c r="P13" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -12642,7 +12957,9 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="4"/>
+      <c r="AR14" s="55" t="s">
+        <v>52</v>
+      </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
@@ -12691,7 +13008,9 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="4"/>
+      <c r="AR15" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
@@ -12758,7 +13077,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="4"/>
@@ -12806,7 +13125,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="52" t="s">
+      <c r="P18" s="26" t="s">
         <v>25</v>
       </c>
       <c r="Q18" s="4"/>
@@ -12853,7 +13172,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="4"/>
@@ -12900,7 +13219,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="52" t="s">
+      <c r="P20" s="26" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="4"/>
@@ -12947,14 +13266,14 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="26" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="U21" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -12995,8 +13314,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="52" t="s">
-        <v>31</v>
+      <c r="P22" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -13043,7 +13362,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="52" t="s">
+      <c r="P23" s="26" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="4"/>
@@ -13127,19 +13446,19 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="52"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="53" t="s">
-        <v>37</v>
+      <c r="R25" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="S25" s="22"/>
       <c r="T25" s="23"/>
-      <c r="U25" s="53" t="s">
-        <v>46</v>
+      <c r="U25" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="V25" s="22"/>
       <c r="W25" s="23"/>
-      <c r="X25" s="53" t="s">
+      <c r="X25" s="27" t="s">
         <v>18</v>
       </c>
       <c r="Y25" s="23"/>
@@ -13186,7 +13505,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="52"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -13552,7 +13871,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4:BB5"/>
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13601,244 +13920,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46">
         <v>1</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25">
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46">
         <v>10</v>
       </c>
-      <c r="BB2" s="26"/>
+      <c r="BB2" s="47"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="28"/>
+      <c r="B3" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="48"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="29" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="31">
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="50">
         <v>43032</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="52"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="54"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -13992,7 +14311,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="55" t="s">
+        <v>52</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -14043,7 +14364,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -14065,8 +14388,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="51" t="s">
-        <v>48</v>
+      <c r="O10" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -14179,7 +14502,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="55"/>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -14202,8 +14525,8 @@
       <c r="I13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="54" t="s">
-        <v>34</v>
+      <c r="P13" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -14275,8 +14598,6 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
@@ -14324,8 +14645,6 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -14391,7 +14710,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="4"/>
@@ -14439,7 +14758,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="52" t="s">
+      <c r="P18" s="26" t="s">
         <v>25</v>
       </c>
       <c r="Q18" s="4"/>
@@ -14486,7 +14805,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="4"/>
@@ -14533,7 +14852,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="52" t="s">
+      <c r="P20" s="26" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="4"/>
@@ -14580,14 +14899,14 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="26" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="U21" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -14628,8 +14947,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="52" t="s">
-        <v>31</v>
+      <c r="P22" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -14676,7 +14995,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="52" t="s">
+      <c r="P23" s="26" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="4"/>
@@ -14760,9 +15079,9 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="52"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="4"/>
-      <c r="X25" s="53" t="s">
+      <c r="X25" s="27" t="s">
         <v>18</v>
       </c>
       <c r="Y25" s="23"/>
@@ -14809,7 +15128,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="52"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -15174,7 +15493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -15222,244 +15543,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="29" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46">
         <v>1</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="25" t="s">
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25">
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46">
         <v>11</v>
       </c>
-      <c r="BB2" s="26"/>
+      <c r="BB2" s="47"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="30" t="s">
+      <c r="B3" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="28"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="48"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="29" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="31">
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="50">
         <v>43032</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="52"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="54"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -15613,7 +15934,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -15664,7 +15987,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -15686,8 +16011,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="51" t="s">
-        <v>48</v>
+      <c r="O10" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -15717,7 +16042,6 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AT10" s="4"/>
       <c r="AU10" s="4"/>
@@ -15754,7 +16078,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="55" t="s">
+        <v>52</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -15800,7 +16126,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -15823,8 +16151,8 @@
       <c r="I13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="54" t="s">
-        <v>34</v>
+      <c r="P13" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -16012,7 +16340,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="4"/>
@@ -16060,7 +16388,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="52" t="s">
+      <c r="P18" s="26" t="s">
         <v>25</v>
       </c>
       <c r="Q18" s="4"/>
@@ -16107,7 +16435,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="4"/>
@@ -16154,7 +16482,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="52" t="s">
+      <c r="P20" s="26" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="4"/>
@@ -16201,14 +16529,14 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="26" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="U21" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -16249,8 +16577,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="52" t="s">
-        <v>31</v>
+      <c r="P22" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -16297,7 +16625,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="52" t="s">
+      <c r="P23" s="26" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="4"/>
@@ -16381,14 +16709,14 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="52"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="4"/>
-      <c r="U25" s="53" t="s">
-        <v>37</v>
+      <c r="U25" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="V25" s="22"/>
       <c r="W25" s="23"/>
-      <c r="X25" s="53" t="s">
+      <c r="X25" s="27" t="s">
         <v>18</v>
       </c>
       <c r="Y25" s="23"/>
@@ -16435,7 +16763,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="52"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
